--- a/data/0926/万顺转债123012.SZ.xlsx
+++ b/data/0926/万顺转债123012.SZ.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smart-wift/Desktop/GitHub/JJStockView/data/0926/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="20" windowWidth="19000" windowHeight="13200" activeTab="3"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="19000" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="万顺转债123012.SZ" sheetId="1" r:id="rId1"/>
@@ -12,8 +17,11 @@
     <sheet name="数据加工" sheetId="3" r:id="rId3"/>
     <sheet name="分价图" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -5878,18 +5886,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -8787,20 +8800,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2130745864"/>
-        <c:axId val="-2130798024"/>
+        <c:axId val="751878240"/>
+        <c:axId val="649753104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2130745864"/>
+        <c:axId val="751878240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130798024"/>
+        <c:crossAx val="649753104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8808,7 +8822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130798024"/>
+        <c:axId val="649753104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8819,14 +8833,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130745864"/>
+        <c:crossAx val="751878240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9457,11 +9470,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2093963560"/>
-        <c:axId val="2074589896"/>
+        <c:axId val="649682400"/>
+        <c:axId val="649461904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2093963560"/>
+        <c:axId val="649682400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9471,7 +9484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074589896"/>
+        <c:crossAx val="649461904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9479,7 +9492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2074589896"/>
+        <c:axId val="649461904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9490,7 +9503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093963560"/>
+        <c:crossAx val="649682400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9869,17 +9882,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J238"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" activeCellId="2" sqref="B1:B1048576 F1:F1048576 H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9911,7 +9924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -9943,7 +9956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -9975,7 +9988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -10007,7 +10020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -10039,7 +10052,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -10071,7 +10084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -10103,7 +10116,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -10135,7 +10148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -10167,7 +10180,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -10199,7 +10212,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
@@ -10231,7 +10244,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>93</v>
       </c>
@@ -10263,7 +10276,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>101</v>
       </c>
@@ -10295,7 +10308,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>110</v>
       </c>
@@ -10327,7 +10340,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>118</v>
       </c>
@@ -10359,7 +10372,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>127</v>
       </c>
@@ -10391,7 +10404,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>135</v>
       </c>
@@ -10423,7 +10436,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>144</v>
       </c>
@@ -10455,7 +10468,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>152</v>
       </c>
@@ -10487,7 +10500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>160</v>
       </c>
@@ -10519,7 +10532,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>169</v>
       </c>
@@ -10551,7 +10564,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>177</v>
       </c>
@@ -10583,7 +10596,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>185</v>
       </c>
@@ -10615,7 +10628,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>191</v>
       </c>
@@ -10647,7 +10660,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>200</v>
       </c>
@@ -10679,7 +10692,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>209</v>
       </c>
@@ -10711,7 +10724,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>217</v>
       </c>
@@ -10743,7 +10756,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>226</v>
       </c>
@@ -10775,7 +10788,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>235</v>
       </c>
@@ -10807,7 +10820,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>243</v>
       </c>
@@ -10839,7 +10852,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>251</v>
       </c>
@@ -10871,7 +10884,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>259</v>
       </c>
@@ -10903,7 +10916,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>267</v>
       </c>
@@ -10935,7 +10948,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
@@ -10967,7 +10980,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>284</v>
       </c>
@@ -10999,7 +11012,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>292</v>
       </c>
@@ -11031,7 +11044,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>301</v>
       </c>
@@ -11063,7 +11076,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>309</v>
       </c>
@@ -11095,7 +11108,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>316</v>
       </c>
@@ -11127,7 +11140,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>325</v>
       </c>
@@ -11159,7 +11172,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>332</v>
       </c>
@@ -11191,7 +11204,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>341</v>
       </c>
@@ -11223,7 +11236,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>349</v>
       </c>
@@ -11255,7 +11268,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>357</v>
       </c>
@@ -11287,7 +11300,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>366</v>
       </c>
@@ -11319,7 +11332,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>375</v>
       </c>
@@ -11351,7 +11364,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>384</v>
       </c>
@@ -11383,7 +11396,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>392</v>
       </c>
@@ -11415,7 +11428,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>401</v>
       </c>
@@ -11447,7 +11460,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>409</v>
       </c>
@@ -11479,7 +11492,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>417</v>
       </c>
@@ -11511,7 +11524,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>425</v>
       </c>
@@ -11543,7 +11556,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>434</v>
       </c>
@@ -11575,7 +11588,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>443</v>
       </c>
@@ -11607,7 +11620,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>452</v>
       </c>
@@ -11639,7 +11652,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>461</v>
       </c>
@@ -11671,7 +11684,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>469</v>
       </c>
@@ -11703,7 +11716,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>478</v>
       </c>
@@ -11735,7 +11748,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>486</v>
       </c>
@@ -11767,7 +11780,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>494</v>
       </c>
@@ -11799,7 +11812,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>503</v>
       </c>
@@ -11831,7 +11844,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>510</v>
       </c>
@@ -11863,7 +11876,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>518</v>
       </c>
@@ -11895,7 +11908,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>527</v>
       </c>
@@ -11927,7 +11940,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>535</v>
       </c>
@@ -11959,7 +11972,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>544</v>
       </c>
@@ -11991,7 +12004,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>553</v>
       </c>
@@ -12023,7 +12036,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>562</v>
       </c>
@@ -12055,7 +12068,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>570</v>
       </c>
@@ -12087,7 +12100,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>577</v>
       </c>
@@ -12119,7 +12132,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>585</v>
       </c>
@@ -12151,7 +12164,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>593</v>
       </c>
@@ -12183,7 +12196,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>602</v>
       </c>
@@ -12215,7 +12228,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>608</v>
       </c>
@@ -12247,7 +12260,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>615</v>
       </c>
@@ -12279,7 +12292,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>624</v>
       </c>
@@ -12311,7 +12324,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>632</v>
       </c>
@@ -12343,7 +12356,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>641</v>
       </c>
@@ -12375,7 +12388,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>649</v>
       </c>
@@ -12407,7 +12420,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>658</v>
       </c>
@@ -12439,7 +12452,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>666</v>
       </c>
@@ -12471,7 +12484,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>675</v>
       </c>
@@ -12503,7 +12516,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>684</v>
       </c>
@@ -12535,7 +12548,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>693</v>
       </c>
@@ -12567,7 +12580,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>702</v>
       </c>
@@ -12599,7 +12612,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>710</v>
       </c>
@@ -12631,7 +12644,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>718</v>
       </c>
@@ -12663,7 +12676,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>727</v>
       </c>
@@ -12695,7 +12708,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>735</v>
       </c>
@@ -12727,7 +12740,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>743</v>
       </c>
@@ -12759,7 +12772,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>751</v>
       </c>
@@ -12791,7 +12804,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>759</v>
       </c>
@@ -12823,7 +12836,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>767</v>
       </c>
@@ -12855,7 +12868,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>776</v>
       </c>
@@ -12887,7 +12900,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>785</v>
       </c>
@@ -12919,7 +12932,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>793</v>
       </c>
@@ -12951,7 +12964,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>802</v>
       </c>
@@ -12983,7 +12996,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>808</v>
       </c>
@@ -13015,7 +13028,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>814</v>
       </c>
@@ -13047,7 +13060,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>820</v>
       </c>
@@ -13079,7 +13092,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>828</v>
       </c>
@@ -13111,7 +13124,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>836</v>
       </c>
@@ -13143,7 +13156,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>844</v>
       </c>
@@ -13175,7 +13188,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>851</v>
       </c>
@@ -13207,7 +13220,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>860</v>
       </c>
@@ -13239,7 +13252,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>868</v>
       </c>
@@ -13271,7 +13284,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>875</v>
       </c>
@@ -13303,7 +13316,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>882</v>
       </c>
@@ -13335,7 +13348,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>891</v>
       </c>
@@ -13367,7 +13380,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>900</v>
       </c>
@@ -13399,7 +13412,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>909</v>
       </c>
@@ -13431,7 +13444,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>918</v>
       </c>
@@ -13463,7 +13476,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>927</v>
       </c>
@@ -13495,7 +13508,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>936</v>
       </c>
@@ -13527,7 +13540,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>945</v>
       </c>
@@ -13559,7 +13572,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>954</v>
       </c>
@@ -13591,7 +13604,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>963</v>
       </c>
@@ -13623,7 +13636,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>971</v>
       </c>
@@ -13655,7 +13668,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>979</v>
       </c>
@@ -13687,7 +13700,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>988</v>
       </c>
@@ -13719,7 +13732,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>995</v>
       </c>
@@ -13751,7 +13764,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>1004</v>
       </c>
@@ -13783,7 +13796,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>1013</v>
       </c>
@@ -13815,7 +13828,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>1020</v>
       </c>
@@ -13847,7 +13860,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>1029</v>
       </c>
@@ -13879,7 +13892,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>1038</v>
       </c>
@@ -13911,7 +13924,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>1046</v>
       </c>
@@ -13943,7 +13956,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>1055</v>
       </c>
@@ -13975,7 +13988,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>1064</v>
       </c>
@@ -14007,7 +14020,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>1073</v>
       </c>
@@ -14039,7 +14052,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>1082</v>
       </c>
@@ -14071,7 +14084,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>1090</v>
       </c>
@@ -14103,7 +14116,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>1099</v>
       </c>
@@ -14135,7 +14148,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>1108</v>
       </c>
@@ -14167,7 +14180,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>1116</v>
       </c>
@@ -14199,7 +14212,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>1122</v>
       </c>
@@ -14231,7 +14244,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>1130</v>
       </c>
@@ -14263,7 +14276,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>1139</v>
       </c>
@@ -14295,7 +14308,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>1145</v>
       </c>
@@ -14327,7 +14340,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>1153</v>
       </c>
@@ -14359,7 +14372,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14391,7 +14404,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>1168</v>
       </c>
@@ -14423,7 +14436,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>1175</v>
       </c>
@@ -14455,7 +14468,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>1183</v>
       </c>
@@ -14487,7 +14500,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>1190</v>
       </c>
@@ -14519,7 +14532,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>1199</v>
       </c>
@@ -14551,7 +14564,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>1208</v>
       </c>
@@ -14583,7 +14596,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>1215</v>
       </c>
@@ -14615,7 +14628,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>1224</v>
       </c>
@@ -14647,7 +14660,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>1233</v>
       </c>
@@ -14679,7 +14692,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>1241</v>
       </c>
@@ -14711,7 +14724,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>1250</v>
       </c>
@@ -14743,7 +14756,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
         <v>1259</v>
       </c>
@@ -14775,7 +14788,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>1266</v>
       </c>
@@ -14807,7 +14820,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>1274</v>
       </c>
@@ -14839,7 +14852,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>1283</v>
       </c>
@@ -14871,7 +14884,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>1291</v>
       </c>
@@ -14903,7 +14916,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>1298</v>
       </c>
@@ -14935,7 +14948,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>1306</v>
       </c>
@@ -14967,7 +14980,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>1315</v>
       </c>
@@ -14999,7 +15012,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
         <v>1323</v>
       </c>
@@ -15031,7 +15044,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
         <v>1332</v>
       </c>
@@ -15063,7 +15076,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
         <v>1339</v>
       </c>
@@ -15095,7 +15108,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
         <v>1347</v>
       </c>
@@ -15127,7 +15140,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
         <v>1355</v>
       </c>
@@ -15159,7 +15172,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
         <v>1363</v>
       </c>
@@ -15191,7 +15204,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
         <v>1372</v>
       </c>
@@ -15223,7 +15236,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
         <v>1380</v>
       </c>
@@ -15255,7 +15268,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>1387</v>
       </c>
@@ -15287,7 +15300,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
         <v>1395</v>
       </c>
@@ -15319,7 +15332,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
         <v>1404</v>
       </c>
@@ -15351,7 +15364,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
         <v>1412</v>
       </c>
@@ -15383,7 +15396,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
         <v>1420</v>
       </c>
@@ -15415,7 +15428,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
         <v>1429</v>
       </c>
@@ -15447,7 +15460,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
         <v>1437</v>
       </c>
@@ -15479,7 +15492,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
         <v>1445</v>
       </c>
@@ -15511,7 +15524,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>1453</v>
       </c>
@@ -15543,7 +15556,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>1461</v>
       </c>
@@ -15575,7 +15588,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
         <v>1467</v>
       </c>
@@ -15607,7 +15620,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
         <v>1475</v>
       </c>
@@ -15639,7 +15652,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
         <v>1483</v>
       </c>
@@ -15671,7 +15684,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
         <v>1491</v>
       </c>
@@ -15703,7 +15716,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
         <v>1500</v>
       </c>
@@ -15735,7 +15748,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
         <v>1508</v>
       </c>
@@ -15767,7 +15780,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
         <v>1514</v>
       </c>
@@ -15799,7 +15812,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
         <v>1522</v>
       </c>
@@ -15831,7 +15844,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
         <v>1530</v>
       </c>
@@ -15863,7 +15876,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
         <v>1539</v>
       </c>
@@ -15895,7 +15908,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
         <v>1548</v>
       </c>
@@ -15927,7 +15940,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
         <v>1556</v>
       </c>
@@ -15959,7 +15972,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
         <v>1562</v>
       </c>
@@ -15991,7 +16004,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
         <v>1569</v>
       </c>
@@ -16023,7 +16036,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
         <v>1577</v>
       </c>
@@ -16055,7 +16068,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
         <v>1585</v>
       </c>
@@ -16087,7 +16100,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
         <v>1592</v>
       </c>
@@ -16119,7 +16132,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
         <v>1599</v>
       </c>
@@ -16151,7 +16164,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
         <v>1608</v>
       </c>
@@ -16183,7 +16196,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>1616</v>
       </c>
@@ -16215,7 +16228,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>1624</v>
       </c>
@@ -16247,7 +16260,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
         <v>1631</v>
       </c>
@@ -16279,7 +16292,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>1638</v>
       </c>
@@ -16311,7 +16324,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
         <v>1644</v>
       </c>
@@ -16343,7 +16356,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
         <v>1651</v>
       </c>
@@ -16375,7 +16388,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
         <v>1660</v>
       </c>
@@ -16407,7 +16420,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
         <v>1669</v>
       </c>
@@ -16439,7 +16452,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
         <v>1677</v>
       </c>
@@ -16471,7 +16484,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
         <v>1685</v>
       </c>
@@ -16503,7 +16516,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
         <v>1693</v>
       </c>
@@ -16535,7 +16548,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
         <v>1702</v>
       </c>
@@ -16567,7 +16580,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
         <v>1711</v>
       </c>
@@ -16599,7 +16612,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
         <v>1719</v>
       </c>
@@ -16631,7 +16644,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
         <v>1726</v>
       </c>
@@ -16663,7 +16676,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>1734</v>
       </c>
@@ -16695,7 +16708,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>1742</v>
       </c>
@@ -16727,7 +16740,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
         <v>1749</v>
       </c>
@@ -16759,7 +16772,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
         <v>1756</v>
       </c>
@@ -16791,7 +16804,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
         <v>1764</v>
       </c>
@@ -16823,7 +16836,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
         <v>1771</v>
       </c>
@@ -16855,7 +16868,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
         <v>1780</v>
       </c>
@@ -16887,7 +16900,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
         <v>1788</v>
       </c>
@@ -16919,7 +16932,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
         <v>1797</v>
       </c>
@@ -16951,7 +16964,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
         <v>1806</v>
       </c>
@@ -16983,7 +16996,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
         <v>1815</v>
       </c>
@@ -17015,7 +17028,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
         <v>1823</v>
       </c>
@@ -17047,7 +17060,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
         <v>1831</v>
       </c>
@@ -17079,7 +17092,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
         <v>1840</v>
       </c>
@@ -17111,7 +17124,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
         <v>1847</v>
       </c>
@@ -17143,7 +17156,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
         <v>1854</v>
       </c>
@@ -17175,7 +17188,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A229" s="2" t="s">
         <v>1860</v>
       </c>
@@ -17207,7 +17220,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
         <v>1868</v>
       </c>
@@ -17239,7 +17252,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
         <v>1877</v>
       </c>
@@ -17271,7 +17284,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
         <v>1885</v>
       </c>
@@ -17303,7 +17316,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
         <v>1893</v>
       </c>
@@ -17335,7 +17348,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
         <v>1901</v>
       </c>
@@ -17367,7 +17380,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
         <v>1910</v>
       </c>
@@ -17399,7 +17412,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
         <v>1917</v>
       </c>
@@ -17431,7 +17444,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>1925</v>
       </c>
@@ -17440,11 +17453,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -17456,13 +17464,13 @@
       <selection activeCell="C1" activeCellId="1" sqref="B1:B1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -17473,7 +17481,7 @@
         <v>2216081</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -17484,7 +17492,7 @@
         <v>534506</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -17495,7 +17503,7 @@
         <v>318349</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -17506,7 +17514,7 @@
         <v>405311</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -17517,7 +17525,7 @@
         <v>200523</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
@@ -17528,7 +17536,7 @@
         <v>206586</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -17539,7 +17547,7 @@
         <v>195900</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
@@ -17550,7 +17558,7 @@
         <v>182423</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
@@ -17561,7 +17569,7 @@
         <v>148191</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
@@ -17572,7 +17580,7 @@
         <v>135399</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>93</v>
       </c>
@@ -17583,7 +17591,7 @@
         <v>89332</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>101</v>
       </c>
@@ -17594,7 +17602,7 @@
         <v>112606</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>110</v>
       </c>
@@ -17605,7 +17613,7 @@
         <v>95011</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>118</v>
       </c>
@@ -17616,7 +17624,7 @@
         <v>93448</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>127</v>
       </c>
@@ -17627,7 +17635,7 @@
         <v>166642</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>135</v>
       </c>
@@ -17638,7 +17646,7 @@
         <v>157943</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>144</v>
       </c>
@@ -17649,7 +17657,7 @@
         <v>122126</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>152</v>
       </c>
@@ -17660,7 +17668,7 @@
         <v>151296</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>160</v>
       </c>
@@ -17671,7 +17679,7 @@
         <v>249649</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>169</v>
       </c>
@@ -17682,7 +17690,7 @@
         <v>247580</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>177</v>
       </c>
@@ -17693,7 +17701,7 @@
         <v>155822</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>185</v>
       </c>
@@ -17704,7 +17712,7 @@
         <v>78076</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>191</v>
       </c>
@@ -17715,7 +17723,7 @@
         <v>268897</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>200</v>
       </c>
@@ -17726,7 +17734,7 @@
         <v>78681</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>209</v>
       </c>
@@ -17737,7 +17745,7 @@
         <v>241034</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>217</v>
       </c>
@@ -17748,7 +17756,7 @@
         <v>313490</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>226</v>
       </c>
@@ -17759,7 +17767,7 @@
         <v>244635</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>235</v>
       </c>
@@ -17770,7 +17778,7 @@
         <v>195461</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>243</v>
       </c>
@@ -17781,7 +17789,7 @@
         <v>142254</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>251</v>
       </c>
@@ -17792,7 +17800,7 @@
         <v>119575</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>259</v>
       </c>
@@ -17803,7 +17811,7 @@
         <v>85379</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>267</v>
       </c>
@@ -17814,7 +17822,7 @@
         <v>133383</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>276</v>
       </c>
@@ -17825,7 +17833,7 @@
         <v>290870</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>284</v>
       </c>
@@ -17836,7 +17844,7 @@
         <v>345450</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>292</v>
       </c>
@@ -17847,7 +17855,7 @@
         <v>151979</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>301</v>
       </c>
@@ -17858,7 +17866,7 @@
         <v>109906</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>309</v>
       </c>
@@ -17869,7 +17877,7 @@
         <v>168598</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>316</v>
       </c>
@@ -17880,7 +17888,7 @@
         <v>95109</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>325</v>
       </c>
@@ -17891,7 +17899,7 @@
         <v>213948</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>332</v>
       </c>
@@ -17902,7 +17910,7 @@
         <v>225162</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>341</v>
       </c>
@@ -17913,7 +17921,7 @@
         <v>274365</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>349</v>
       </c>
@@ -17924,7 +17932,7 @@
         <v>504465</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>357</v>
       </c>
@@ -17935,7 +17943,7 @@
         <v>288972</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>366</v>
       </c>
@@ -17946,7 +17954,7 @@
         <v>154903</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>375</v>
       </c>
@@ -17957,7 +17965,7 @@
         <v>91486</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>384</v>
       </c>
@@ -17968,7 +17976,7 @@
         <v>164137</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>392</v>
       </c>
@@ -17979,7 +17987,7 @@
         <v>114744</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>401</v>
       </c>
@@ -17990,7 +17998,7 @@
         <v>224369</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>409</v>
       </c>
@@ -18001,7 +18009,7 @@
         <v>376434</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>417</v>
       </c>
@@ -18012,7 +18020,7 @@
         <v>785825</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>425</v>
       </c>
@@ -18023,7 +18031,7 @@
         <v>583378</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>434</v>
       </c>
@@ -18034,7 +18042,7 @@
         <v>1019594</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>443</v>
       </c>
@@ -18045,7 +18053,7 @@
         <v>385705</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>452</v>
       </c>
@@ -18056,7 +18064,7 @@
         <v>442118</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>461</v>
       </c>
@@ -18067,7 +18075,7 @@
         <v>243425</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>469</v>
       </c>
@@ -18078,7 +18086,7 @@
         <v>161450</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>478</v>
       </c>
@@ -18089,7 +18097,7 @@
         <v>213043</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>486</v>
       </c>
@@ -18100,7 +18108,7 @@
         <v>328579</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>494</v>
       </c>
@@ -18111,7 +18119,7 @@
         <v>111693</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>503</v>
       </c>
@@ -18122,7 +18130,7 @@
         <v>162446</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>510</v>
       </c>
@@ -18133,7 +18141,7 @@
         <v>74918</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>518</v>
       </c>
@@ -18144,7 +18152,7 @@
         <v>66172</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>527</v>
       </c>
@@ -18155,7 +18163,7 @@
         <v>432457</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>535</v>
       </c>
@@ -18166,7 +18174,7 @@
         <v>594403</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>544</v>
       </c>
@@ -18177,7 +18185,7 @@
         <v>357765</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>553</v>
       </c>
@@ -18188,7 +18196,7 @@
         <v>178846</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>562</v>
       </c>
@@ -18199,7 +18207,7 @@
         <v>183061</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>570</v>
       </c>
@@ -18210,7 +18218,7 @@
         <v>98466</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>577</v>
       </c>
@@ -18221,7 +18229,7 @@
         <v>305530</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>585</v>
       </c>
@@ -18232,7 +18240,7 @@
         <v>546870</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>593</v>
       </c>
@@ -18243,7 +18251,7 @@
         <v>140691</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>602</v>
       </c>
@@ -18254,7 +18262,7 @@
         <v>201111</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>608</v>
       </c>
@@ -18265,7 +18273,7 @@
         <v>658333</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>615</v>
       </c>
@@ -18276,7 +18284,7 @@
         <v>182218</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>624</v>
       </c>
@@ -18287,7 +18295,7 @@
         <v>46912</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>632</v>
       </c>
@@ -18298,7 +18306,7 @@
         <v>73922</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>641</v>
       </c>
@@ -18309,7 +18317,7 @@
         <v>73325</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>649</v>
       </c>
@@ -18320,7 +18328,7 @@
         <v>113446</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>658</v>
       </c>
@@ -18331,7 +18339,7 @@
         <v>96962</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>666</v>
       </c>
@@ -18342,7 +18350,7 @@
         <v>52164</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>675</v>
       </c>
@@ -18353,7 +18361,7 @@
         <v>54227</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>684</v>
       </c>
@@ -18364,7 +18372,7 @@
         <v>78403</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>693</v>
       </c>
@@ -18375,7 +18383,7 @@
         <v>79020</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>702</v>
       </c>
@@ -18386,7 +18394,7 @@
         <v>59379</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>710</v>
       </c>
@@ -18397,7 +18405,7 @@
         <v>119606</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>718</v>
       </c>
@@ -18408,7 +18416,7 @@
         <v>237138</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>727</v>
       </c>
@@ -18419,7 +18427,7 @@
         <v>320764</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>735</v>
       </c>
@@ -18430,7 +18438,7 @@
         <v>200762</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>743</v>
       </c>
@@ -18441,7 +18449,7 @@
         <v>195198</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>751</v>
       </c>
@@ -18452,7 +18460,7 @@
         <v>184264</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>759</v>
       </c>
@@ -18463,7 +18471,7 @@
         <v>152429</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>767</v>
       </c>
@@ -18474,7 +18482,7 @@
         <v>259630</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>776</v>
       </c>
@@ -18485,7 +18493,7 @@
         <v>417099</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>785</v>
       </c>
@@ -18496,7 +18504,7 @@
         <v>172945</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>793</v>
       </c>
@@ -18507,7 +18515,7 @@
         <v>344312</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>802</v>
       </c>
@@ -18518,7 +18526,7 @@
         <v>146781</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>808</v>
       </c>
@@ -18529,7 +18537,7 @@
         <v>105700</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>814</v>
       </c>
@@ -18540,7 +18548,7 @@
         <v>100906</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>820</v>
       </c>
@@ -18551,7 +18559,7 @@
         <v>180190</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>828</v>
       </c>
@@ -18562,7 +18570,7 @@
         <v>355232</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>836</v>
       </c>
@@ -18573,7 +18581,7 @@
         <v>109520</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>844</v>
       </c>
@@ -18584,7 +18592,7 @@
         <v>91587</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>851</v>
       </c>
@@ -18595,7 +18603,7 @@
         <v>46743</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>860</v>
       </c>
@@ -18606,7 +18614,7 @@
         <v>135460</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>868</v>
       </c>
@@ -18617,7 +18625,7 @@
         <v>96100</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>875</v>
       </c>
@@ -18628,7 +18636,7 @@
         <v>121374</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>882</v>
       </c>
@@ -18639,7 +18647,7 @@
         <v>461536</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>891</v>
       </c>
@@ -18650,7 +18658,7 @@
         <v>3937367</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>900</v>
       </c>
@@ -18661,7 +18669,7 @@
         <v>2743910</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>909</v>
       </c>
@@ -18672,7 +18680,7 @@
         <v>768995</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>918</v>
       </c>
@@ -18683,7 +18691,7 @@
         <v>835297</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>927</v>
       </c>
@@ -18694,7 +18702,7 @@
         <v>1667879</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>936</v>
       </c>
@@ -18705,7 +18713,7 @@
         <v>3095206</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>945</v>
       </c>
@@ -18716,7 +18724,7 @@
         <v>2519481</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>954</v>
       </c>
@@ -18727,7 +18735,7 @@
         <v>439566</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>963</v>
       </c>
@@ -18738,7 +18746,7 @@
         <v>693660</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>971</v>
       </c>
@@ -18749,7 +18757,7 @@
         <v>388603</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>979</v>
       </c>
@@ -18760,7 +18768,7 @@
         <v>212822</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>988</v>
       </c>
@@ -18771,7 +18779,7 @@
         <v>954080</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>995</v>
       </c>
@@ -18782,7 +18790,7 @@
         <v>498558</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>1004</v>
       </c>
@@ -18793,7 +18801,7 @@
         <v>507157</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>1013</v>
       </c>
@@ -18804,7 +18812,7 @@
         <v>322686</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>1020</v>
       </c>
@@ -18815,7 +18823,7 @@
         <v>283201</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>1029</v>
       </c>
@@ -18826,7 +18834,7 @@
         <v>445919</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>1038</v>
       </c>
@@ -18837,7 +18845,7 @@
         <v>172286</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>1046</v>
       </c>
@@ -18848,7 +18856,7 @@
         <v>235901</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>1055</v>
       </c>
@@ -18859,7 +18867,7 @@
         <v>296699</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>1064</v>
       </c>
@@ -18870,7 +18878,7 @@
         <v>637237</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>1073</v>
       </c>
@@ -18881,7 +18889,7 @@
         <v>270124</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>1082</v>
       </c>
@@ -18892,7 +18900,7 @@
         <v>65391</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>1090</v>
       </c>
@@ -18903,7 +18911,7 @@
         <v>121334</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>1099</v>
       </c>
@@ -18914,7 +18922,7 @@
         <v>117391</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>1108</v>
       </c>
@@ -18925,7 +18933,7 @@
         <v>116873</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>1116</v>
       </c>
@@ -18936,7 +18944,7 @@
         <v>196227</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>1122</v>
       </c>
@@ -18947,7 +18955,7 @@
         <v>874033</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>1130</v>
       </c>
@@ -18958,7 +18966,7 @@
         <v>698153</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>1139</v>
       </c>
@@ -18969,7 +18977,7 @@
         <v>179450</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>1145</v>
       </c>
@@ -18980,7 +18988,7 @@
         <v>125580</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>1153</v>
       </c>
@@ -18991,7 +18999,7 @@
         <v>86788</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>1159</v>
       </c>
@@ -19002,7 +19010,7 @@
         <v>252565</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>1168</v>
       </c>
@@ -19013,7 +19021,7 @@
         <v>182355</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>1175</v>
       </c>
@@ -19024,7 +19032,7 @@
         <v>411458</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>1183</v>
       </c>
@@ -19035,7 +19043,7 @@
         <v>148444</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>1190</v>
       </c>
@@ -19046,7 +19054,7 @@
         <v>60763</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>1199</v>
       </c>
@@ -19057,7 +19065,7 @@
         <v>304517</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>1208</v>
       </c>
@@ -19068,7 +19076,7 @@
         <v>80538</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>1215</v>
       </c>
@@ -19079,7 +19087,7 @@
         <v>169222</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>1224</v>
       </c>
@@ -19090,7 +19098,7 @@
         <v>335683</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>1233</v>
       </c>
@@ -19101,7 +19109,7 @@
         <v>122601</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>1241</v>
       </c>
@@ -19112,7 +19120,7 @@
         <v>438227</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>1250</v>
       </c>
@@ -19123,7 +19131,7 @@
         <v>65321</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>1259</v>
       </c>
@@ -19134,7 +19142,7 @@
         <v>43064</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
         <v>1266</v>
       </c>
@@ -19145,7 +19153,7 @@
         <v>16597</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>1274</v>
       </c>
@@ -19156,7 +19164,7 @@
         <v>42652</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>1283</v>
       </c>
@@ -19167,7 +19175,7 @@
         <v>69842</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>1291</v>
       </c>
@@ -19178,7 +19186,7 @@
         <v>47302</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>1298</v>
       </c>
@@ -19189,7 +19197,7 @@
         <v>230664</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>1306</v>
       </c>
@@ -19200,7 +19208,7 @@
         <v>72287</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>1315</v>
       </c>
@@ -19211,7 +19219,7 @@
         <v>38734</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>1323</v>
       </c>
@@ -19222,7 +19230,7 @@
         <v>46893</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
         <v>1332</v>
       </c>
@@ -19233,7 +19241,7 @@
         <v>53048</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
         <v>1339</v>
       </c>
@@ -19244,7 +19252,7 @@
         <v>85882</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
         <v>1347</v>
       </c>
@@ -19255,7 +19263,7 @@
         <v>64736</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
         <v>1355</v>
       </c>
@@ -19266,7 +19274,7 @@
         <v>16532</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
         <v>1363</v>
       </c>
@@ -19277,7 +19285,7 @@
         <v>38241</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
         <v>1372</v>
       </c>
@@ -19288,7 +19296,7 @@
         <v>27672</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
         <v>1380</v>
       </c>
@@ -19299,7 +19307,7 @@
         <v>11089</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
         <v>1387</v>
       </c>
@@ -19310,7 +19318,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>1395</v>
       </c>
@@ -19321,7 +19329,7 @@
         <v>23074</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
         <v>1404</v>
       </c>
@@ -19332,7 +19340,7 @@
         <v>9392</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
         <v>1412</v>
       </c>
@@ -19343,7 +19351,7 @@
         <v>33912</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
         <v>1420</v>
       </c>
@@ -19354,7 +19362,7 @@
         <v>21700</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
         <v>1429</v>
       </c>
@@ -19365,7 +19373,7 @@
         <v>16143</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
         <v>1437</v>
       </c>
@@ -19376,7 +19384,7 @@
         <v>27143</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
         <v>1445</v>
       </c>
@@ -19387,7 +19395,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
         <v>1453</v>
       </c>
@@ -19398,7 +19406,7 @@
         <v>10956</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>1461</v>
       </c>
@@ -19409,7 +19417,7 @@
         <v>15559</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>1467</v>
       </c>
@@ -19420,7 +19428,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
         <v>1475</v>
       </c>
@@ -19431,7 +19439,7 @@
         <v>9868</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
         <v>1483</v>
       </c>
@@ -19442,7 +19450,7 @@
         <v>6854</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
         <v>1491</v>
       </c>
@@ -19453,7 +19461,7 @@
         <v>10836</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
         <v>1500</v>
       </c>
@@ -19464,7 +19472,7 @@
         <v>14153</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
         <v>1508</v>
       </c>
@@ -19475,7 +19483,7 @@
         <v>4540</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
         <v>1514</v>
       </c>
@@ -19486,7 +19494,7 @@
         <v>7495</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
         <v>1522</v>
       </c>
@@ -19497,7 +19505,7 @@
         <v>13506</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
         <v>1530</v>
       </c>
@@ -19508,7 +19516,7 @@
         <v>3874</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
         <v>1539</v>
       </c>
@@ -19519,7 +19527,7 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
         <v>1548</v>
       </c>
@@ -19530,7 +19538,7 @@
         <v>7090</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
         <v>1556</v>
       </c>
@@ -19541,7 +19549,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
         <v>1562</v>
       </c>
@@ -19552,7 +19560,7 @@
         <v>4214</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
         <v>1569</v>
       </c>
@@ -19563,7 +19571,7 @@
         <v>4486</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
         <v>1577</v>
       </c>
@@ -19574,7 +19582,7 @@
         <v>21114</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
         <v>1585</v>
       </c>
@@ -19585,7 +19593,7 @@
         <v>26856</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
         <v>1592</v>
       </c>
@@ -19596,7 +19604,7 @@
         <v>124086</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
         <v>1599</v>
       </c>
@@ -19607,7 +19615,7 @@
         <v>102775</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
         <v>1608</v>
       </c>
@@ -19618,7 +19626,7 @@
         <v>18364</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
         <v>1616</v>
       </c>
@@ -19629,7 +19637,7 @@
         <v>4514</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>1624</v>
       </c>
@@ -19640,7 +19648,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>1631</v>
       </c>
@@ -19651,7 +19659,7 @@
         <v>22430</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
         <v>1638</v>
       </c>
@@ -19662,7 +19670,7 @@
         <v>18431</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>1644</v>
       </c>
@@ -19673,7 +19681,7 @@
         <v>39365</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
         <v>1651</v>
       </c>
@@ -19684,7 +19692,7 @@
         <v>19935</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
         <v>1660</v>
       </c>
@@ -19695,7 +19703,7 @@
         <v>4672</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
         <v>1669</v>
       </c>
@@ -19706,7 +19714,7 @@
         <v>46336</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
         <v>1677</v>
       </c>
@@ -19717,7 +19725,7 @@
         <v>4624</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
         <v>1685</v>
       </c>
@@ -19728,7 +19736,7 @@
         <v>4513</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
         <v>1693</v>
       </c>
@@ -19739,7 +19747,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
         <v>1702</v>
       </c>
@@ -19750,7 +19758,7 @@
         <v>116946</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
         <v>1711</v>
       </c>
@@ -19761,7 +19769,7 @@
         <v>48110</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
         <v>1719</v>
       </c>
@@ -19772,7 +19780,7 @@
         <v>77047</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
         <v>1726</v>
       </c>
@@ -19783,7 +19791,7 @@
         <v>32316</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
         <v>1734</v>
       </c>
@@ -19794,7 +19802,7 @@
         <v>78326</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>1742</v>
       </c>
@@ -19805,7 +19813,7 @@
         <v>120615</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>1749</v>
       </c>
@@ -19816,7 +19824,7 @@
         <v>28786</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
         <v>1756</v>
       </c>
@@ -19827,7 +19835,7 @@
         <v>19909</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
         <v>1764</v>
       </c>
@@ -19838,7 +19846,7 @@
         <v>33122</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
         <v>1771</v>
       </c>
@@ -19849,7 +19857,7 @@
         <v>27180</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
         <v>1780</v>
       </c>
@@ -19860,7 +19868,7 @@
         <v>11750</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
         <v>1788</v>
       </c>
@@ -19871,7 +19879,7 @@
         <v>20933</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
         <v>1797</v>
       </c>
@@ -19882,7 +19890,7 @@
         <v>14684</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
         <v>1806</v>
       </c>
@@ -19893,7 +19901,7 @@
         <v>12196</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
         <v>1815</v>
       </c>
@@ -19904,7 +19912,7 @@
         <v>29262</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
         <v>1823</v>
       </c>
@@ -19915,7 +19923,7 @@
         <v>10518</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
         <v>1831</v>
       </c>
@@ -19926,7 +19934,7 @@
         <v>10216</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
         <v>1840</v>
       </c>
@@ -19937,7 +19945,7 @@
         <v>10052</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
         <v>1847</v>
       </c>
@@ -19948,7 +19956,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
         <v>1854</v>
       </c>
@@ -19959,7 +19967,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
         <v>1860</v>
       </c>
@@ -19970,7 +19978,7 @@
         <v>18022</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="2" t="s">
         <v>1868</v>
       </c>
@@ -19981,7 +19989,7 @@
         <v>33401</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
         <v>1877</v>
       </c>
@@ -19992,7 +20000,7 @@
         <v>15385</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
         <v>1885</v>
       </c>
@@ -20003,7 +20011,7 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
         <v>1893</v>
       </c>
@@ -20014,7 +20022,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
         <v>1901</v>
       </c>
@@ -20025,7 +20033,7 @@
         <v>12637</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
         <v>1910</v>
       </c>
@@ -20036,7 +20044,7 @@
         <v>40546</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
         <v>1917</v>
       </c>
@@ -20052,11 +20060,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -20068,12 +20071,12 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3">
         <v>91.92</v>
       </c>
@@ -20092,7 +20095,7 @@
         <v>4722579</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>91.891000000000005</v>
       </c>
@@ -20100,7 +20103,7 @@
         <v>534506</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:D65" si="0">INT(A2)</f>
+        <f t="shared" ref="C2:C65" si="0">INT(A2)</f>
         <v>91</v>
       </c>
       <c r="D2">
@@ -20111,7 +20114,7 @@
         <v>1657784</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>91.75</v>
       </c>
@@ -20130,7 +20133,7 @@
         <v>1349680</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>91.2</v>
       </c>
@@ -20149,7 +20152,7 @@
         <v>996756</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>91.41</v>
       </c>
@@ -20168,7 +20171,7 @@
         <v>873161</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>90.701999999999998</v>
       </c>
@@ -20187,7 +20190,7 @@
         <v>275637</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>90.53</v>
       </c>
@@ -20206,7 +20209,7 @@
         <v>85379</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>90.53</v>
       </c>
@@ -20225,7 +20228,7 @@
         <v>2191236</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>89.75</v>
       </c>
@@ -20244,7 +20247,7 @@
         <v>649728</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>89.525000000000006</v>
       </c>
@@ -20263,7 +20266,7 @@
         <v>463675</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>89.62</v>
       </c>
@@ -20282,7 +20285,7 @@
         <v>2661355</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>90.1</v>
       </c>
@@ -20301,7 +20304,7 @@
         <v>4214390</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>89.995999999999995</v>
       </c>
@@ -20320,7 +20323,7 @@
         <v>2722838</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>89.567999999999998</v>
       </c>
@@ -20339,7 +20342,7 @@
         <v>2157486</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>90.882999999999996</v>
       </c>
@@ -20358,7 +20361,7 @@
         <v>138399</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>91.117999999999995</v>
       </c>
@@ -20377,7 +20380,7 @@
         <v>461536</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>91.25</v>
       </c>
@@ -20396,7 +20399,7 @@
         <v>4883380</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>91.9</v>
       </c>
@@ -20415,7 +20418,7 @@
         <v>3008454</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>92.192999999999998</v>
       </c>
@@ -20434,7 +20437,7 @@
         <v>990664</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>92.403000000000006</v>
       </c>
@@ -20453,7 +20456,7 @@
         <v>1680610</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>91.441999999999993</v>
       </c>
@@ -20472,7 +20475,7 @@
         <v>3095206</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>91.712000000000003</v>
       </c>
@@ -20491,7 +20494,7 @@
         <v>3955815</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>90.850999999999999</v>
       </c>
@@ -20510,7 +20513,7 @@
         <v>2133570</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>90.838999999999999</v>
       </c>
@@ -20529,7 +20532,7 @@
         <v>1139579</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>90.96</v>
       </c>
@@ -20548,7 +20551,7 @@
         <v>547678</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>88.49</v>
       </c>
@@ -20567,7 +20570,7 @@
         <v>259715</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>88.259</v>
       </c>
@@ -20586,7 +20589,7 @@
         <v>1158958</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>88.4</v>
       </c>
@@ -20605,7 +20608,7 @@
         <v>211020</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>87.9</v>
       </c>
@@ -20624,7 +20627,7 @@
         <v>601729</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>88.141999999999996</v>
       </c>
@@ -20643,7 +20646,7 @@
         <v>1553922</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>86.938999999999993</v>
       </c>
@@ -20662,7 +20665,7 @@
         <v>880508</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>87.311000000000007</v>
       </c>
@@ -20681,7 +20684,7 @@
         <v>824501</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>89.569000000000003</v>
       </c>
@@ -20700,7 +20703,7 @@
         <v>755893</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>89.953000000000003</v>
       </c>
@@ -20719,7 +20722,7 @@
         <v>304517</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>89.998999999999995</v>
       </c>
@@ -20738,7 +20741,7 @@
         <v>80538</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>90.188999999999993</v>
       </c>
@@ -20757,7 +20760,7 @@
         <v>230986</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>91.016999999999996</v>
       </c>
@@ -20776,7 +20779,7 @@
         <v>90112</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>90.7</v>
       </c>
@@ -20795,7 +20798,7 @@
         <v>54384</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>91.8</v>
       </c>
@@ -20814,7 +20817,7 @@
         <v>23074</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>92.251000000000005</v>
       </c>
@@ -20833,7 +20836,7 @@
         <v>392279</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>92.79</v>
       </c>
@@ -20852,7 +20855,7 @@
         <v>306939</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>96</v>
       </c>
@@ -20871,7 +20874,7 @@
         <v>206140</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>96.24</v>
       </c>
@@ -20890,7 +20893,7 @@
         <v>93909</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>95.445999999999998</v>
       </c>
@@ -20909,7 +20912,7 @@
         <v>139394</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>95.52</v>
       </c>
@@ -20928,7 +20931,7 @@
         <v>26162</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>94.49</v>
       </c>
@@ -20940,7 +20943,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>94.605000000000004</v>
       </c>
@@ -20952,7 +20955,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>96.31</v>
       </c>
@@ -20964,7 +20967,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>97.447000000000003</v>
       </c>
@@ -20976,7 +20979,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>99.28</v>
       </c>
@@ -20988,7 +20991,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>99.8</v>
       </c>
@@ -21000,7 +21003,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>100.2</v>
       </c>
@@ -21012,7 +21015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>99.99</v>
       </c>
@@ -21024,7 +21027,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>98.998999999999995</v>
       </c>
@@ -21036,7 +21039,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>99.328000000000003</v>
       </c>
@@ -21048,7 +21051,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>99.34</v>
       </c>
@@ -21060,7 +21063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>96.99</v>
       </c>
@@ -21072,7 +21075,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>98.3</v>
       </c>
@@ -21084,7 +21087,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>98.087999999999994</v>
       </c>
@@ -21096,7 +21099,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>98.3</v>
       </c>
@@ -21108,7 +21111,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>97.43</v>
       </c>
@@ -21120,7 +21123,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>97.16</v>
       </c>
@@ -21132,7 +21135,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>98.2</v>
       </c>
@@ -21144,7 +21147,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>99.86</v>
       </c>
@@ -21156,7 +21159,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>99.248000000000005</v>
       </c>
@@ -21168,7 +21171,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>99.194999999999993</v>
       </c>
@@ -21176,11 +21179,11 @@
         <v>178846</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:D129" si="2">INT(A66)</f>
+        <f t="shared" ref="C66:C129" si="2">INT(A66)</f>
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>99.29</v>
       </c>
@@ -21192,7 +21195,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>98.7</v>
       </c>
@@ -21204,7 +21207,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>97.703000000000003</v>
       </c>
@@ -21216,7 +21219,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>97.78</v>
       </c>
@@ -21228,7 +21231,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>98.323999999999998</v>
       </c>
@@ -21240,7 +21243,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>96.28</v>
       </c>
@@ -21252,7 +21255,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>97.65</v>
       </c>
@@ -21264,7 +21267,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>96.97</v>
       </c>
@@ -21276,7 +21279,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>96.700999999999993</v>
       </c>
@@ -21288,7 +21291,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>96.64</v>
       </c>
@@ -21300,7 +21303,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>95</v>
       </c>
@@ -21312,7 +21315,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>95.266000000000005</v>
       </c>
@@ -21324,7 +21327,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>95.215000000000003</v>
       </c>
@@ -21336,7 +21339,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>94.84</v>
       </c>
@@ -21348,7 +21351,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>94.531000000000006</v>
       </c>
@@ -21360,7 +21363,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>94.647000000000006</v>
       </c>
@@ -21372,7 +21375,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>93.41</v>
       </c>
@@ -21384,7 +21387,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>93.51</v>
       </c>
@@ -21396,7 +21399,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>95.510999999999996</v>
       </c>
@@ -21408,7 +21411,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>97.382999999999996</v>
       </c>
@@ -21420,7 +21423,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>96.91</v>
       </c>
@@ -21432,7 +21435,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>97.84</v>
       </c>
@@ -21444,7 +21447,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>97.8</v>
       </c>
@@ -21456,7 +21459,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>99.2</v>
       </c>
@@ -21468,7 +21471,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <v>99.650999999999996</v>
       </c>
@@ -21480,7 +21483,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <v>100.24</v>
       </c>
@@ -21492,7 +21495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>100.22</v>
       </c>
@@ -21504,7 +21507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
         <v>99.927000000000007</v>
       </c>
@@ -21516,7 +21519,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>100.211</v>
       </c>
@@ -21528,7 +21531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>100.3</v>
       </c>
@@ -21540,7 +21543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>98.7</v>
       </c>
@@ -21552,7 +21555,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>98.799000000000007</v>
       </c>
@@ -21564,7 +21567,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>100.1</v>
       </c>
@@ -21576,7 +21579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <v>100.5</v>
       </c>
@@ -21588,7 +21591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <v>99.45</v>
       </c>
@@ -21600,7 +21603,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
         <v>98.15</v>
       </c>
@@ -21612,7 +21615,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
         <v>98.18</v>
       </c>
@@ -21624,7 +21627,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
         <v>96.79</v>
       </c>
@@ -21636,7 +21639,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
         <v>98.486000000000004</v>
       </c>
@@ -21648,7 +21651,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
         <v>99.95</v>
       </c>
@@ -21660,7 +21663,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
         <v>101.489</v>
       </c>
@@ -21672,7 +21675,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
         <v>110.599</v>
       </c>
@@ -21684,7 +21687,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
         <v>109.02</v>
       </c>
@@ -21696,7 +21699,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
         <v>107.12</v>
       </c>
@@ -21708,7 +21711,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
         <v>110.12</v>
       </c>
@@ -21720,7 +21723,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
         <v>113.11</v>
       </c>
@@ -21732,7 +21735,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
         <v>125.3</v>
       </c>
@@ -21744,7 +21747,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>121.1</v>
       </c>
@@ -21756,7 +21759,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
         <v>119.645</v>
       </c>
@@ -21768,7 +21771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>123.08</v>
       </c>
@@ -21780,7 +21783,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
         <v>118.02</v>
       </c>
@@ -21792,7 +21795,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
         <v>114</v>
       </c>
@@ -21804,7 +21807,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
         <v>121</v>
       </c>
@@ -21816,7 +21819,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
         <v>119.8</v>
       </c>
@@ -21828,7 +21831,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
         <v>119.6</v>
       </c>
@@ -21840,7 +21843,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
         <v>122.1</v>
       </c>
@@ -21852,7 +21855,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
         <v>122.986</v>
       </c>
@@ -21864,7 +21867,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
         <v>123.5</v>
       </c>
@@ -21876,7 +21879,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
         <v>117.206</v>
       </c>
@@ -21888,7 +21891,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
         <v>119.48</v>
       </c>
@@ -21900,7 +21903,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
         <v>120.301</v>
       </c>
@@ -21912,7 +21915,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
         <v>124.17</v>
       </c>
@@ -21924,7 +21927,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
         <v>119.63200000000001</v>
       </c>
@@ -21936,7 +21939,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
         <v>119.7</v>
       </c>
@@ -21944,11 +21947,11 @@
         <v>65391</v>
       </c>
       <c r="C130">
-        <f t="shared" ref="C130:D193" si="3">INT(A130)</f>
+        <f t="shared" ref="C130:C193" si="3">INT(A130)</f>
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
         <v>121.23</v>
       </c>
@@ -21960,7 +21963,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
         <v>121.276</v>
       </c>
@@ -21972,7 +21975,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="3">
         <v>119.5</v>
       </c>
@@ -21984,7 +21987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="3">
         <v>121</v>
       </c>
@@ -21996,7 +21999,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="3">
         <v>124</v>
       </c>
@@ -22008,7 +22011,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
         <v>126.34099999999999</v>
       </c>
@@ -22020,7 +22023,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
         <v>120.35899999999999</v>
       </c>
@@ -22032,7 +22035,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="3">
         <v>120.09</v>
       </c>
@@ -22044,7 +22047,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="3">
         <v>118</v>
       </c>
@@ -22056,7 +22059,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="3">
         <v>122.73</v>
       </c>
@@ -22068,7 +22071,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="3">
         <v>126.2</v>
       </c>
@@ -22080,7 +22083,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="3">
         <v>127.4</v>
       </c>
@@ -22092,7 +22095,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
         <v>128.1</v>
       </c>
@@ -22104,7 +22107,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
         <v>127.64</v>
       </c>
@@ -22116,7 +22119,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
         <v>133.15</v>
       </c>
@@ -22128,7 +22131,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
         <v>130.5</v>
       </c>
@@ -22140,7 +22143,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="3">
         <v>128.72999999999999</v>
       </c>
@@ -22152,7 +22155,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
         <v>127.73</v>
       </c>
@@ -22164,7 +22167,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="3">
         <v>129.01</v>
       </c>
@@ -22176,7 +22179,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="3">
         <v>128.05000000000001</v>
       </c>
@@ -22188,7 +22191,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
         <v>129.88300000000001</v>
       </c>
@@ -22200,7 +22203,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
         <v>129.01</v>
       </c>
@@ -22212,7 +22215,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
         <v>127.59</v>
       </c>
@@ -22224,7 +22227,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="3">
         <v>124.99</v>
       </c>
@@ -22236,7 +22239,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="3">
         <v>122</v>
       </c>
@@ -22248,7 +22251,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="3">
         <v>121.6</v>
       </c>
@@ -22260,7 +22263,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="3">
         <v>122.5</v>
       </c>
@@ -22272,7 +22275,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="3">
         <v>118.11</v>
       </c>
@@ -22284,7 +22287,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="3">
         <v>117.001</v>
       </c>
@@ -22296,7 +22299,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="3">
         <v>114.22</v>
       </c>
@@ -22308,7 +22311,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="3">
         <v>115.798</v>
       </c>
@@ -22320,7 +22323,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="3">
         <v>107.592</v>
       </c>
@@ -22332,7 +22335,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="3">
         <v>109.47499999999999</v>
       </c>
@@ -22344,7 +22347,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="3">
         <v>109.5</v>
       </c>
@@ -22356,7 +22359,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="3">
         <v>111.242</v>
       </c>
@@ -22368,7 +22371,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="3">
         <v>115.5</v>
       </c>
@@ -22380,7 +22383,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="3">
         <v>113.33</v>
       </c>
@@ -22392,7 +22395,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="3">
         <v>113.145</v>
       </c>
@@ -22404,7 +22407,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="3">
         <v>116.6</v>
       </c>
@@ -22416,7 +22419,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="3">
         <v>115</v>
       </c>
@@ -22428,7 +22431,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="3">
         <v>110.497</v>
       </c>
@@ -22440,7 +22443,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="3">
         <v>110.16</v>
       </c>
@@ -22452,7 +22455,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="3">
         <v>111.22</v>
       </c>
@@ -22464,7 +22467,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="3">
         <v>110.51</v>
       </c>
@@ -22476,7 +22479,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="3">
         <v>109.006</v>
       </c>
@@ -22488,7 +22491,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="3">
         <v>109.241</v>
       </c>
@@ -22500,7 +22503,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="3">
         <v>110.342</v>
       </c>
@@ -22512,7 +22515,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
         <v>110.11199999999999</v>
       </c>
@@ -22524,7 +22527,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="3">
         <v>110.005</v>
       </c>
@@ -22536,7 +22539,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="3">
         <v>108.143</v>
       </c>
@@ -22548,7 +22551,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="3">
         <v>108.434</v>
       </c>
@@ -22560,7 +22563,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="3">
         <v>106.11</v>
       </c>
@@ -22572,7 +22575,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="3">
         <v>103.1</v>
       </c>
@@ -22584,7 +22587,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="3">
         <v>103.017</v>
       </c>
@@ -22596,7 +22599,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="3">
         <v>102.8</v>
       </c>
@@ -22608,7 +22611,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="3">
         <v>102.361</v>
       </c>
@@ -22620,7 +22623,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="3">
         <v>104.59699999999999</v>
       </c>
@@ -22632,7 +22635,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="3">
         <v>103.67100000000001</v>
       </c>
@@ -22644,7 +22647,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="3">
         <v>104.79600000000001</v>
       </c>
@@ -22656,7 +22659,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="3">
         <v>104.108</v>
       </c>
@@ -22668,7 +22671,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="3">
         <v>103.658</v>
       </c>
@@ -22680,7 +22683,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="3">
         <v>103.101</v>
       </c>
@@ -22692,7 +22695,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="3">
         <v>103.1</v>
       </c>
@@ -22704,7 +22707,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="3">
         <v>104.145</v>
       </c>
@@ -22712,11 +22715,11 @@
         <v>124086</v>
       </c>
       <c r="C194">
-        <f t="shared" ref="C194:D235" si="4">INT(A194)</f>
+        <f t="shared" ref="C194:C235" si="4">INT(A194)</f>
         <v>104</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="3">
         <v>106.261</v>
       </c>
@@ -22728,7 +22731,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="3">
         <v>106.404</v>
       </c>
@@ -22740,7 +22743,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="3">
         <v>105.93</v>
       </c>
@@ -22752,7 +22755,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="3">
         <v>105.9</v>
       </c>
@@ -22764,7 +22767,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="3">
         <v>106.917</v>
       </c>
@@ -22776,7 +22779,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="3">
         <v>106.41</v>
       </c>
@@ -22788,7 +22791,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="3">
         <v>107.514</v>
       </c>
@@ -22800,7 +22803,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="3">
         <v>108.208</v>
       </c>
@@ -22812,7 +22815,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="3">
         <v>107.499</v>
       </c>
@@ -22824,7 +22827,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="3">
         <v>108.71299999999999</v>
       </c>
@@ -22836,7 +22839,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="3">
         <v>108.599</v>
       </c>
@@ -22848,7 +22851,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="3">
         <v>105.99</v>
       </c>
@@ -22860,7 +22863,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="3">
         <v>106.00700000000001</v>
       </c>
@@ -22872,7 +22875,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="3">
         <v>106.1</v>
       </c>
@@ -22884,7 +22887,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="3">
         <v>107.22</v>
       </c>
@@ -22896,7 +22899,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
         <v>108.45</v>
       </c>
@@ -22908,7 +22911,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="3">
         <v>108.5</v>
       </c>
@@ -22920,7 +22923,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="3">
         <v>108.5</v>
       </c>
@@ -22932,7 +22935,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="3">
         <v>109.63</v>
       </c>
@@ -22944,7 +22947,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="3">
         <v>109.012</v>
       </c>
@@ -22956,7 +22959,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="3">
         <v>109.098</v>
       </c>
@@ -22968,7 +22971,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="3">
         <v>107.1</v>
       </c>
@@ -22980,7 +22983,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="3">
         <v>108.172</v>
       </c>
@@ -22992,7 +22995,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="3">
         <v>108.58799999999999</v>
       </c>
@@ -23004,7 +23007,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="3">
         <v>108.39</v>
       </c>
@@ -23016,7 +23019,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="3">
         <v>108.654</v>
       </c>
@@ -23028,7 +23031,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="3">
         <v>108.051</v>
       </c>
@@ -23040,7 +23043,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="3">
         <v>108.25</v>
       </c>
@@ -23052,7 +23055,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="3">
         <v>107.52</v>
       </c>
@@ -23064,7 +23067,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="3">
         <v>106.886</v>
       </c>
@@ -23076,7 +23079,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="3">
         <v>105.76600000000001</v>
       </c>
@@ -23088,7 +23091,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="3">
         <v>105.111</v>
       </c>
@@ -23100,7 +23103,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="3">
         <v>102.38500000000001</v>
       </c>
@@ -23112,7 +23115,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="3">
         <v>102.328</v>
       </c>
@@ -23124,7 +23127,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" s="3">
         <v>103.443</v>
       </c>
@@ -23136,7 +23139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="3">
         <v>102.654</v>
       </c>
@@ -23148,7 +23151,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="3">
         <v>103.393</v>
       </c>
@@ -23160,7 +23163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="3">
         <v>102.97</v>
       </c>
@@ -23172,7 +23175,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" s="3">
         <v>103.30200000000001</v>
       </c>
@@ -23184,7 +23187,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="3">
         <v>103.661</v>
       </c>
@@ -23196,7 +23199,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="3">
         <v>103.901</v>
       </c>
@@ -23212,11 +23215,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -23224,13 +23222,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>86</v>
       </c>
@@ -23238,7 +23236,7 @@
         <v>85379</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>87</v>
       </c>
@@ -23246,7 +23244,7 @@
         <v>275637</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>88</v>
       </c>
@@ -23254,7 +23252,7 @@
         <v>873161</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>89</v>
       </c>
@@ -23262,7 +23260,7 @@
         <v>1349680</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>90</v>
       </c>
@@ -23270,7 +23268,7 @@
         <v>1657784</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>91</v>
       </c>
@@ -23278,7 +23276,7 @@
         <v>4722579</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>92</v>
       </c>
@@ -23286,7 +23284,7 @@
         <v>996756</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>93</v>
       </c>
@@ -23294,7 +23292,7 @@
         <v>138399</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>94</v>
       </c>
@@ -23302,7 +23300,7 @@
         <v>463675</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>95</v>
       </c>
@@ -23310,7 +23308,7 @@
         <v>649728</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>96</v>
       </c>
@@ -23318,7 +23316,7 @@
         <v>2191236</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>97</v>
       </c>
@@ -23326,7 +23324,7 @@
         <v>2661355</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>98</v>
       </c>
@@ -23334,7 +23332,7 @@
         <v>2157486</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>99</v>
       </c>
@@ -23342,7 +23340,7 @@
         <v>4214390</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>100</v>
       </c>
@@ -23350,7 +23348,7 @@
         <v>2722838</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>101</v>
       </c>
@@ -23358,7 +23356,7 @@
         <v>461536</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>102</v>
       </c>
@@ -23366,7 +23364,7 @@
         <v>93909</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>103</v>
       </c>
@@ -23374,7 +23372,7 @@
         <v>206140</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>104</v>
       </c>
@@ -23382,7 +23380,7 @@
         <v>139394</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>105</v>
       </c>
@@ -23390,7 +23388,7 @@
         <v>26162</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>106</v>
       </c>
@@ -23398,7 +23396,7 @@
         <v>306939</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>107</v>
       </c>
@@ -23406,7 +23404,7 @@
         <v>990664</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>108</v>
       </c>
@@ -23414,7 +23412,7 @@
         <v>392279</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>109</v>
       </c>
@@ -23422,7 +23420,7 @@
         <v>3008454</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>110</v>
       </c>
@@ -23430,7 +23428,7 @@
         <v>4883380</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>111</v>
       </c>
@@ -23438,7 +23436,7 @@
         <v>54384</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>113</v>
       </c>
@@ -23446,7 +23444,7 @@
         <v>1680610</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>114</v>
       </c>
@@ -23454,7 +23452,7 @@
         <v>259715</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>115</v>
       </c>
@@ -23462,7 +23460,7 @@
         <v>90112</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>116</v>
       </c>
@@ -23470,7 +23468,7 @@
         <v>23074</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>117</v>
       </c>
@@ -23478,7 +23476,7 @@
         <v>211020</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>118</v>
       </c>
@@ -23486,7 +23484,7 @@
         <v>547678</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>119</v>
       </c>
@@ -23494,7 +23492,7 @@
         <v>2133570</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>120</v>
       </c>
@@ -23502,7 +23500,7 @@
         <v>601729</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>121</v>
       </c>
@@ -23510,7 +23508,7 @@
         <v>3955815</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>122</v>
       </c>
@@ -23518,7 +23516,7 @@
         <v>1158958</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>123</v>
       </c>
@@ -23526,7 +23524,7 @@
         <v>1139579</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>124</v>
       </c>
@@ -23534,7 +23532,7 @@
         <v>1553922</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>125</v>
       </c>
@@ -23542,7 +23540,7 @@
         <v>3095206</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>126</v>
       </c>
@@ -23550,7 +23548,7 @@
         <v>880508</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>127</v>
       </c>
@@ -23558,7 +23556,7 @@
         <v>824501</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>128</v>
       </c>
@@ -23566,7 +23564,7 @@
         <v>755893</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>129</v>
       </c>
@@ -23574,7 +23572,7 @@
         <v>230986</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>130</v>
       </c>
@@ -23582,7 +23580,7 @@
         <v>80538</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>133</v>
       </c>
@@ -23597,10 +23595,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>